--- a/data/strategies/兴业场内策略结果.xlsx
+++ b/data/strategies/兴业场内策略结果.xlsx
@@ -18,17 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="206">
   <si>
     <t>易方达中证生物科技主题ETF</t>
   </si>
   <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
+  <si>
     <t>富国中证娱乐主题指数增强（LOF)</t>
   </si>
   <si>
-    <t>富国中证细分机械设备产业ETF</t>
-  </si>
-  <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>15.84%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>6.16%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>18.32%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.29%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>24.67%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>3.58%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>10.55%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>7.54%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>20.72%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>19.37%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>24.47%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -143,103 +140,106 @@
     <t>159837.OF</t>
   </si>
   <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
     <t>161036.OF</t>
   </si>
   <si>
-    <t>159886.OF</t>
-  </si>
-  <si>
     <t>512400.OF</t>
   </si>
   <si>
     <t>515000.OF</t>
   </si>
   <si>
-    <t>-0.78%</t>
-  </si>
-  <si>
-    <t>-6.04%</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>-1.52%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>17.47%</t>
-  </si>
-  <si>
-    <t>11.25%</t>
-  </si>
-  <si>
-    <t>-3.57%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>1.69%</t>
-  </si>
-  <si>
-    <t>25.37%</t>
-  </si>
-  <si>
-    <t>12.56%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>19.22%</t>
-  </si>
-  <si>
-    <t>27.95%</t>
-  </si>
-  <si>
-    <t>15.71%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>21.37%</t>
-  </si>
-  <si>
-    <t>33.95%</t>
-  </si>
-  <si>
-    <t>18.02%</t>
-  </si>
-  <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
-  </si>
-  <si>
-    <t>25.62%</t>
+    <t>-5.14%</t>
+  </si>
+  <si>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>3.29%</t>
+  </si>
+  <si>
+    <t>7.39%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>-10.48%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>9.35%</t>
+  </si>
+  <si>
+    <t>3.77%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
+  </si>
+  <si>
+    <t>-9.75%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>1.46%</t>
+  </si>
+  <si>
+    <t>31.97%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>22.85%</t>
+  </si>
+  <si>
+    <t>30.49%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t>16.51%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>34.36%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>18.08%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>25.48%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -254,301 +254,307 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>600276.SH</t>
   </si>
   <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
     <t>300750.SZ</t>
   </si>
   <si>
-    <t>002415.SZ</t>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>300760.SZ</t>
   </si>
   <si>
     <t>601888.SH</t>
   </si>
   <si>
-    <t>603259.SH</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>300760.SZ</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
     <t>002027.SZ</t>
   </si>
   <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
     <t>300122.SZ</t>
   </si>
   <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
     <t>002230.SZ</t>
   </si>
   <si>
-    <t>603799.SH</t>
+    <t>000100.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002241.SZ</t>
+  </si>
+  <si>
+    <t>002821.SZ</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
   </si>
   <si>
     <t>000661.SZ</t>
   </si>
   <si>
-    <t>600031.SH</t>
-  </si>
-  <si>
-    <t>300142.SZ</t>
-  </si>
-  <si>
-    <t>002241.SZ</t>
-  </si>
-  <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>3.30%</t>
+    <t>477.53%</t>
+  </si>
+  <si>
+    <t>331.09%</t>
+  </si>
+  <si>
+    <t>282.97%</t>
+  </si>
+  <si>
+    <t>255.62%</t>
+  </si>
+  <si>
+    <t>227.77%</t>
+  </si>
+  <si>
+    <t>202.92%</t>
+  </si>
+  <si>
+    <t>195.05%</t>
+  </si>
+  <si>
+    <t>183.62%</t>
+  </si>
+  <si>
+    <t>170.32%</t>
+  </si>
+  <si>
+    <t>168.69%</t>
+  </si>
+  <si>
+    <t>165.36%</t>
+  </si>
+  <si>
+    <t>154.04%</t>
+  </si>
+  <si>
+    <t>151.83%</t>
+  </si>
+  <si>
+    <t>145.46%</t>
+  </si>
+  <si>
+    <t>129.86%</t>
+  </si>
+  <si>
+    <t>124.08%</t>
+  </si>
+  <si>
+    <t>123.65%</t>
+  </si>
+  <si>
+    <t>121.57%</t>
+  </si>
+  <si>
+    <t>120.78%</t>
+  </si>
+  <si>
+    <t>113.07%</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>智飞生物</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>凯莱英</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>长春高新</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>显示器件业务</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>药品制造与研发</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>商品贸易-免税商品</t>
+  </si>
+  <si>
+    <t>楼宇媒体</t>
+  </si>
+  <si>
+    <t>代理产品-二类苗</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>教育产品和服务</t>
+  </si>
+  <si>
+    <t>半导体显示业务</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>商业化阶段</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>基因工程药品\生物类药品</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>25.89%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>-13.42%</t>
+  </si>
+  <si>
+    <t>20.25%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>64.39%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
   </si>
   <si>
     <t>2.87%</t>
   </si>
   <si>
-    <t>2.72%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>2.03%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>1.86%</t>
-  </si>
-  <si>
-    <t>1.73%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.62%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.34%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>1.16%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>分众传媒</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>智飞生物</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>长春高新</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>沃森生物</t>
-  </si>
-  <si>
-    <t>歌尔股份</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>商品贸易-免税商品</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>显示器件业务</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>药品制造与研发</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>楼宇媒体</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>代理产品-二类苗</t>
-  </si>
-  <si>
-    <t>教育产品和服务</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>基因工程药品\生物类药品</t>
-  </si>
-  <si>
-    <t>挖掘机械</t>
-  </si>
-  <si>
-    <t>13价肺炎球菌多糖结合疫苗(预充注射剂)</t>
-  </si>
-  <si>
-    <t>智能声学整机</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>7.93%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>42.32%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>-4.33%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>69.88%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>-9.56%</t>
-  </si>
-  <si>
-    <t>-14.61%</t>
-  </si>
-  <si>
-    <t>69.93%</t>
-  </si>
-  <si>
-    <t>16.65%</t>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>28.53%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-12.23%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -560,64 +566,76 @@
     <t>医药生物</t>
   </si>
   <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>电子</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
   </si>
   <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>传媒娱乐</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>集成电路</t>
+    <t>营销服务</t>
   </si>
   <si>
     <t>软件开发</t>
   </si>
   <si>
-    <t>机械设备</t>
-  </si>
-  <si>
-    <t>31.52%</t>
-  </si>
-  <si>
-    <t>16.43%</t>
-  </si>
-  <si>
-    <t>7.11%</t>
-  </si>
-  <si>
-    <t>5.05%</t>
-  </si>
-  <si>
-    <t>4.87%</t>
-  </si>
-  <si>
-    <t>4.39%</t>
-  </si>
-  <si>
-    <t>4.24%</t>
-  </si>
-  <si>
-    <t>4.03%</t>
-  </si>
-  <si>
-    <t>3.40%</t>
-  </si>
-  <si>
-    <t>3.24%</t>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>9.37%</t>
+  </si>
+  <si>
+    <t>5.70%</t>
+  </si>
+  <si>
+    <t>5.53%</t>
+  </si>
+  <si>
+    <t>3.97%</t>
+  </si>
+  <si>
+    <t>3.39%</t>
+  </si>
+  <si>
+    <t>2.73%</t>
+  </si>
+  <si>
+    <t>2.04%</t>
+  </si>
+  <si>
+    <t>2.02%</t>
+  </si>
+  <si>
+    <t>1.98%</t>
+  </si>
+  <si>
+    <t>1.74%</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>1.48%</t>
   </si>
 </sst>
 </file>
@@ -981,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,10 +1071,10 @@
         <v>1.004127322376041</v>
       </c>
       <c r="C3">
+        <v>1.064836999224328</v>
+      </c>
+      <c r="D3">
         <v>1.007722007722008</v>
-      </c>
-      <c r="D3">
-        <v>1.064836999224328</v>
       </c>
       <c r="E3">
         <v>1.056768131545464</v>
@@ -1065,7 +1083,7 @@
         <v>1.010953927450873</v>
       </c>
       <c r="G3">
-        <v>1.025694028752472</v>
+        <v>1.025979603709983</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1082,10 +1100,10 @@
         <v>1.013941672636526</v>
       </c>
       <c r="C4">
+        <v>1.079573026780003</v>
+      </c>
+      <c r="D4">
         <v>1.002895752895753</v>
-      </c>
-      <c r="D4">
-        <v>1.079573026780003</v>
       </c>
       <c r="E4">
         <v>1.068219633943428</v>
@@ -1094,7 +1112,7 @@
         <v>1.046898222050971</v>
       </c>
       <c r="G4">
-        <v>1.042724564636674</v>
+        <v>1.043107951006095</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1111,10 +1129,10 @@
         <v>1.037618572711903</v>
       </c>
       <c r="C5">
+        <v>1.086848968240705</v>
+      </c>
+      <c r="D5">
         <v>0.9973455598455598</v>
-      </c>
-      <c r="D5">
-        <v>1.086848968240705</v>
       </c>
       <c r="E5">
         <v>1.073407066653616</v>
@@ -1123,7 +1141,7 @@
         <v>1.048329388451588</v>
       </c>
       <c r="G5">
-        <v>1.048334846481356</v>
+        <v>1.048782363523332</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1140,10 +1158,10 @@
         <v>1.040792114227864</v>
       </c>
       <c r="C6">
+        <v>1.132719877079329</v>
+      </c>
+      <c r="D6">
         <v>0.9835907335907337</v>
-      </c>
-      <c r="D6">
-        <v>1.132719877079329</v>
       </c>
       <c r="E6">
         <v>1.115102280512871</v>
@@ -1152,7 +1170,7 @@
         <v>1.056035669070292</v>
       </c>
       <c r="G6">
-        <v>1.063527510925071</v>
+        <v>1.064273156642514</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1169,10 +1187,10 @@
         <v>1.043334797371669</v>
       </c>
       <c r="C7">
+        <v>1.118095518166899</v>
+      </c>
+      <c r="D7">
         <v>1.001206563706564</v>
-      </c>
-      <c r="D7">
-        <v>1.118095518166899</v>
       </c>
       <c r="E7">
         <v>1.111187236958011</v>
@@ -1181,7 +1199,7 @@
         <v>1.062530962734629</v>
       </c>
       <c r="G7">
-        <v>1.066038903681337</v>
+        <v>1.066623348453639</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1198,10 +1216,10 @@
         <v>1.03189027673108</v>
       </c>
       <c r="C8">
+        <v>1.089060901222685</v>
+      </c>
+      <c r="D8">
         <v>1.008445945945946</v>
-      </c>
-      <c r="D8">
-        <v>1.089060901222685</v>
       </c>
       <c r="E8">
         <v>1.063717333855339</v>
@@ -1210,7 +1228,7 @@
         <v>1.071723454615512</v>
       </c>
       <c r="G8">
-        <v>1.055734306666087</v>
+        <v>1.056137381442471</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1227,10 +1245,10 @@
         <v>1.048820421710136</v>
       </c>
       <c r="C9">
+        <v>1.132395423494981</v>
+      </c>
+      <c r="D9">
         <v>1.005912162162162</v>
-      </c>
-      <c r="D9">
-        <v>1.132395423494981</v>
       </c>
       <c r="E9">
         <v>1.08808847998434</v>
@@ -1239,7 +1257,7 @@
         <v>1.097704629272857</v>
       </c>
       <c r="G9">
-        <v>1.077926910992422</v>
+        <v>1.078559327299086</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1256,10 +1274,10 @@
         <v>1.023917183822912</v>
       </c>
       <c r="C10">
+        <v>1.118211904329259</v>
+      </c>
+      <c r="D10">
         <v>1.001568532818533</v>
-      </c>
-      <c r="D10">
-        <v>1.118211904329259</v>
       </c>
       <c r="E10">
         <v>1.05392972496819</v>
@@ -1268,7 +1286,7 @@
         <v>1.09346617493257</v>
       </c>
       <c r="G10">
-        <v>1.063579778390873</v>
+        <v>1.064162995248426</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1285,10 +1303,10 @@
         <v>1.005769754522801</v>
       </c>
       <c r="C11">
+        <v>1.085541383672937</v>
+      </c>
+      <c r="D11">
         <v>0.9898648648648649</v>
-      </c>
-      <c r="D11">
-        <v>1.085541383672937</v>
       </c>
       <c r="E11">
         <v>1.032984241949692</v>
@@ -1297,7 +1315,7 @@
         <v>1.0800352287114</v>
       </c>
       <c r="G11">
-        <v>1.045226238998399</v>
+        <v>1.045704621592439</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1314,10 +1332,10 @@
         <v>1.008196251201437</v>
       </c>
       <c r="C12">
+        <v>1.087277505194144</v>
+      </c>
+      <c r="D12">
         <v>0.990588803088803</v>
-      </c>
-      <c r="D12">
-        <v>1.087277505194144</v>
       </c>
       <c r="E12">
         <v>1.043750611725555</v>
@@ -1326,7 +1344,7 @@
         <v>1.070017063907084</v>
       </c>
       <c r="G12">
-        <v>1.044518729610429</v>
+        <v>1.045002173120956</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1343,10 +1361,10 @@
         <v>1.010824356521311</v>
       </c>
       <c r="C13">
+        <v>1.102710583442528</v>
+      </c>
+      <c r="D13">
         <v>1.003257722007722</v>
-      </c>
-      <c r="D13">
-        <v>1.102710583442528</v>
       </c>
       <c r="E13">
         <v>1.059508662033865</v>
@@ -1355,7 +1373,7 @@
         <v>1.091319425331645</v>
       </c>
       <c r="G13">
-        <v>1.059295539212983</v>
+        <v>1.059792803520158</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1372,10 +1390,10 @@
         <v>0.9887250198916766</v>
       </c>
       <c r="C14">
+        <v>1.07041606147414</v>
+      </c>
+      <c r="D14">
         <v>0.9969835907335908</v>
-      </c>
-      <c r="D14">
-        <v>1.07041606147414</v>
       </c>
       <c r="E14">
         <v>1.022413624351571</v>
@@ -1384,7 +1402,7 @@
         <v>1.074090383662685</v>
       </c>
       <c r="G14">
-        <v>1.037337188576224</v>
+        <v>1.037704350929927</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1401,10 +1419,10 @@
         <v>1.027351928802997</v>
       </c>
       <c r="C15">
+        <v>1.11199543075996</v>
+      </c>
+      <c r="D15">
         <v>1.003137065637066</v>
-      </c>
-      <c r="D15">
-        <v>1.11199543075996</v>
       </c>
       <c r="E15">
         <v>1.053146716257218</v>
@@ -1413,7 +1431,7 @@
         <v>1.086145208344801</v>
       </c>
       <c r="G15">
-        <v>1.06085950206643</v>
+        <v>1.061403793892044</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1430,10 +1448,10 @@
         <v>1.055443812007164</v>
       </c>
       <c r="C16">
+        <v>1.141350292764891</v>
+      </c>
+      <c r="D16">
         <v>1.012427606177606</v>
-      </c>
-      <c r="D16">
-        <v>1.141350292764891</v>
       </c>
       <c r="E16">
         <v>1.090535382206127</v>
@@ -1442,7 +1460,7 @@
         <v>1.108438377277481</v>
       </c>
       <c r="G16">
-        <v>1.085583941963198</v>
+        <v>1.086228555396134</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1459,10 +1477,10 @@
         <v>1.110300216538111</v>
       </c>
       <c r="C17">
+        <v>1.169311773426793</v>
+      </c>
+      <c r="D17">
         <v>1.014720077220077</v>
-      </c>
-      <c r="D17">
-        <v>1.169311773426793</v>
       </c>
       <c r="E17">
         <v>1.10061661935989</v>
@@ -1471,7 +1489,7 @@
         <v>1.116695106511807</v>
       </c>
       <c r="G17">
-        <v>1.104301019897591</v>
+        <v>1.105073978378625</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1488,10 +1506,10 @@
         <v>1.118695454091382</v>
       </c>
       <c r="C18">
+        <v>1.170550022878105</v>
+      </c>
+      <c r="D18">
         <v>1.014116795366795</v>
-      </c>
-      <c r="D18">
-        <v>1.170550022878105</v>
       </c>
       <c r="E18">
         <v>1.116178917490457</v>
@@ -1500,7 +1518,7 @@
         <v>1.109979633401222</v>
       </c>
       <c r="G18">
-        <v>1.106181636591106</v>
+        <v>1.106963802728663</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1517,10 +1535,10 @@
         <v>1.076871564205738</v>
       </c>
       <c r="C19">
+        <v>1.143111330235736</v>
+      </c>
+      <c r="D19">
         <v>1.009049227799228</v>
-      </c>
-      <c r="D19">
-        <v>1.143111330235736</v>
       </c>
       <c r="E19">
         <v>1.09601644318293</v>
@@ -1529,7 +1547,7 @@
         <v>1.07166840975395</v>
       </c>
       <c r="G19">
-        <v>1.077713192473727</v>
+        <v>1.07838350298591</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1546,10 +1564,10 @@
         <v>1.066476603911961</v>
       </c>
       <c r="C20">
+        <v>1.173343402505447</v>
+      </c>
+      <c r="D20">
         <v>1.037162162162162</v>
-      </c>
-      <c r="D20">
-        <v>1.173343402505447</v>
       </c>
       <c r="E20">
         <v>1.089262993050798</v>
@@ -1558,7 +1576,7 @@
         <v>1.080585677327021</v>
       </c>
       <c r="G20">
-        <v>1.087541919017299</v>
+        <v>1.088222825219015</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1575,10 +1593,10 @@
         <v>1.033218034149328</v>
       </c>
       <c r="C21">
+        <v>1.114061617230356</v>
+      </c>
+      <c r="D21">
         <v>1.021718146718147</v>
-      </c>
-      <c r="D21">
-        <v>1.114061617230356</v>
       </c>
       <c r="E21">
         <v>1.049133796613487</v>
@@ -1587,7 +1605,7 @@
         <v>1.029008642043265</v>
       </c>
       <c r="G21">
-        <v>1.045839245905982</v>
+        <v>1.046300963258543</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1604,10 +1622,10 @@
         <v>1.023794932397892</v>
       </c>
       <c r="C22">
+        <v>1.097880501839255</v>
+      </c>
+      <c r="D22">
         <v>1.020632239382239</v>
-      </c>
-      <c r="D22">
-        <v>1.097880501839255</v>
       </c>
       <c r="E22">
         <v>1.036312028971322</v>
@@ -1616,7 +1634,7 @@
         <v>1.024219739087356</v>
       </c>
       <c r="G22">
-        <v>1.037686900685195</v>
+        <v>1.03807314199748</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1633,10 +1651,10 @@
         <v>1.047833503315797</v>
       </c>
       <c r="C23">
+        <v>1.101091952976316</v>
+      </c>
+      <c r="D23">
         <v>1.034749034749035</v>
-      </c>
-      <c r="D23">
-        <v>1.101091952976316</v>
       </c>
       <c r="E23">
         <v>1.048155035724772</v>
@@ -1645,7 +1663,7 @@
         <v>1.03445808333792</v>
       </c>
       <c r="G23">
-        <v>1.050035952108215</v>
+        <v>1.050367666699351</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1662,10 +1680,10 @@
         <v>1.065362086966162</v>
       </c>
       <c r="C24">
+        <v>1.137013328468826</v>
+      </c>
+      <c r="D24">
         <v>1.038368725868726</v>
-      </c>
-      <c r="D24">
-        <v>1.137013328468826</v>
       </c>
       <c r="E24">
         <v>1.078790251541548</v>
@@ -1674,7 +1692,7 @@
         <v>1.050531182914075</v>
       </c>
       <c r="G24">
-        <v>1.069917119245288</v>
+        <v>1.070410342258288</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1691,10 +1709,10 @@
         <v>1.080511257949877</v>
       </c>
       <c r="C25">
+        <v>1.143360464903067</v>
+      </c>
+      <c r="D25">
         <v>1.041867760617761</v>
-      </c>
-      <c r="D25">
-        <v>1.143360464903067</v>
       </c>
       <c r="E25">
         <v>1.084564940784966</v>
@@ -1703,7 +1721,7 @@
         <v>1.024164694225794</v>
       </c>
       <c r="G25">
-        <v>1.066386474189536</v>
+        <v>1.066893937710963</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1720,10 +1738,10 @@
         <v>1.068067659695923</v>
       </c>
       <c r="C26">
+        <v>1.139734654198959</v>
+      </c>
+      <c r="D26">
         <v>1.006515444015444</v>
-      </c>
-      <c r="D26">
-        <v>1.139734654198959</v>
       </c>
       <c r="E26">
         <v>1.040227072526182</v>
@@ -1732,7 +1750,7 @@
         <v>1.013651125667419</v>
       </c>
       <c r="G26">
-        <v>1.046877684010829</v>
+        <v>1.047543780061747</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1749,10 +1767,10 @@
         <v>1.100404047918281</v>
       </c>
       <c r="C27">
+        <v>1.122197425865832</v>
+      </c>
+      <c r="D27">
         <v>1.006756756756757</v>
-      </c>
-      <c r="D27">
-        <v>1.122197425865832</v>
       </c>
       <c r="E27">
         <v>0.9885484976020358</v>
@@ -1761,7 +1779,7 @@
         <v>1.006660428249023</v>
       </c>
       <c r="G27">
-        <v>1.038688355489132</v>
+        <v>1.039265558834678</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1778,10 +1796,10 @@
         <v>1.113552470685185</v>
       </c>
       <c r="C28">
+        <v>1.160187383831868</v>
+      </c>
+      <c r="D28">
         <v>1.021718146718147</v>
-      </c>
-      <c r="D28">
-        <v>1.160187383831868</v>
       </c>
       <c r="E28">
         <v>1.028873446217089</v>
@@ -1790,7 +1808,7 @@
         <v>1.018550118346452</v>
       </c>
       <c r="G28">
-        <v>1.060312580970974</v>
+        <v>1.061004927156542</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1807,10 +1825,10 @@
         <v>1.129049805523547</v>
       </c>
       <c r="C29">
+        <v>1.196258304680301</v>
+      </c>
+      <c r="D29">
         <v>1.036317567567568</v>
-      </c>
-      <c r="D29">
-        <v>1.196258304680301</v>
       </c>
       <c r="E29">
         <v>1.080062640696878</v>
@@ -1819,7 +1837,7 @@
         <v>1.04332030604943</v>
       </c>
       <c r="G29">
-        <v>1.088001110409036</v>
+        <v>1.0888008140946</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1836,10 +1854,10 @@
         <v>1.160285740475123</v>
       </c>
       <c r="C30">
+        <v>1.214785032647653</v>
+      </c>
+      <c r="D30">
         <v>1.048262548262548</v>
-      </c>
-      <c r="D30">
-        <v>1.214785032647653</v>
       </c>
       <c r="E30">
         <v>1.108936086913967</v>
@@ -1848,7 +1866,7 @@
         <v>1.06660428249023</v>
       </c>
       <c r="G30">
-        <v>1.110846607034847</v>
+        <v>1.111679219456773</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1865,10 +1883,10 @@
         <v>1.094033452179689</v>
       </c>
       <c r="C31">
+        <v>1.194476137689634</v>
+      </c>
+      <c r="D31">
         <v>1.062017374517374</v>
-      </c>
-      <c r="D31">
-        <v>1.194476137689634</v>
       </c>
       <c r="E31">
         <v>1.181070764412254</v>
@@ -1877,7 +1895,7 @@
         <v>1.044806517311609</v>
       </c>
       <c r="G31">
-        <v>1.103280030098143</v>
+        <v>1.103942323914005</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1894,10 +1912,10 @@
         <v>1.084557553048292</v>
       </c>
       <c r="C32">
+        <v>1.170724968350102</v>
+      </c>
+      <c r="D32">
         <v>1.075530888030888</v>
-      </c>
-      <c r="D32">
-        <v>1.170724968350102</v>
       </c>
       <c r="E32">
         <v>1.197513947342664</v>
@@ -1906,7 +1924,7 @@
         <v>1.04128364617163</v>
       </c>
       <c r="G32">
-        <v>1.101598059309405</v>
+        <v>1.102074029711001</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1923,10 +1941,10 @@
         <v>1.03088082715739</v>
       </c>
       <c r="C33">
+        <v>1.126369612185044</v>
+      </c>
+      <c r="D33">
         <v>1.04753861003861</v>
-      </c>
-      <c r="D33">
-        <v>1.126369612185044</v>
       </c>
       <c r="E33">
         <v>1.254477831065871</v>
@@ -1935,7 +1953,7 @@
         <v>1.009137447019321</v>
       </c>
       <c r="G33">
-        <v>1.079186489976097</v>
+        <v>1.079580644986829</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1952,10 +1970,10 @@
         <v>1.026414526264448</v>
       </c>
       <c r="C34">
+        <v>1.125951491017229</v>
+      </c>
+      <c r="D34">
         <v>1.032335907335907</v>
-      </c>
-      <c r="D34">
-        <v>1.125951491017229</v>
       </c>
       <c r="E34">
         <v>1.237055887246746</v>
@@ -1964,7 +1982,7 @@
         <v>1.01012825452744</v>
       </c>
       <c r="G34">
-        <v>1.073226115119671</v>
+        <v>1.073694193038078</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1981,10 +1999,10 @@
         <v>0.9897813044331062</v>
       </c>
       <c r="C35">
+        <v>1.080099750203639</v>
+      </c>
+      <c r="D35">
         <v>1.030043436293436</v>
-      </c>
-      <c r="D35">
-        <v>1.080099750203639</v>
       </c>
       <c r="E35">
         <v>1.182343153567583</v>
@@ -1993,7 +2011,7 @@
         <v>0.9914680464578631</v>
       </c>
       <c r="G35">
-        <v>1.043857740376859</v>
+        <v>1.04410802194641</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -2010,10 +2028,10 @@
         <v>0.9886792836485474</v>
       </c>
       <c r="C36">
+        <v>1.071389372569089</v>
+      </c>
+      <c r="D36">
         <v>1.025458494208494</v>
-      </c>
-      <c r="D36">
-        <v>1.071389372569089</v>
       </c>
       <c r="E36">
         <v>1.168934129392189</v>
@@ -2022,7 +2040,7 @@
         <v>0.9862387846094568</v>
       </c>
       <c r="G36">
-        <v>1.037515598980429</v>
+        <v>1.037745253372232</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2039,10 +2057,10 @@
         <v>0.9786603215662223</v>
       </c>
       <c r="C37">
+        <v>1.047416243955229</v>
+      </c>
+      <c r="D37">
         <v>1.005912162162162</v>
-      </c>
-      <c r="D37">
-        <v>1.047416243955229</v>
       </c>
       <c r="E37">
         <v>1.116766174023686</v>
@@ -2051,7 +2069,7 @@
         <v>0.9754499917432707</v>
       </c>
       <c r="G37">
-        <v>1.016365918475626</v>
+        <v>1.016573438884591</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2068,10 +2086,10 @@
         <v>0.9979384703377243</v>
       </c>
       <c r="C38">
+        <v>1.095415374640601</v>
+      </c>
+      <c r="D38">
         <v>1.035714285714286</v>
-      </c>
-      <c r="D38">
-        <v>1.095415374640601</v>
       </c>
       <c r="E38">
         <v>1.158069883527454</v>
@@ -2080,7 +2098,7 @@
         <v>0.9960367699675235</v>
       </c>
       <c r="G38">
-        <v>1.046238170215854</v>
+        <v>1.046536675660485</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2097,10 +2115,10 @@
         <v>0.9720724273989513</v>
       </c>
       <c r="C39">
+        <v>1.096756975004088</v>
+      </c>
+      <c r="D39">
         <v>1.02726833976834</v>
-      </c>
-      <c r="D39">
-        <v>1.096756975004088</v>
       </c>
       <c r="E39">
         <v>1.119213076245473</v>
@@ -2109,7 +2127,7 @@
         <v>0.9918533604887985</v>
       </c>
       <c r="G39">
-        <v>1.032834597835921</v>
+        <v>1.0331820410121</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2126,10 +2144,10 @@
         <v>0.9909020181857088</v>
       </c>
       <c r="C40">
+        <v>1.092751255036991</v>
+      </c>
+      <c r="D40">
         <v>1.040781853281853</v>
-      </c>
-      <c r="D40">
-        <v>1.092751255036991</v>
       </c>
       <c r="E40">
         <v>1.160908290104727</v>
@@ -2138,7 +2156,7 @@
         <v>1.003908185170914</v>
       </c>
       <c r="G40">
-        <v>1.048529784204271</v>
+        <v>1.048789631213046</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2155,10 +2173,10 @@
         <v>0.9474461706612607</v>
       </c>
       <c r="C41">
+        <v>1.022998650553657</v>
+      </c>
+      <c r="D41">
         <v>1.02159749034749</v>
-      </c>
-      <c r="D41">
-        <v>1.022998650553657</v>
       </c>
       <c r="E41">
         <v>1.115395908779485</v>
@@ -2167,7 +2185,7 @@
         <v>0.9703308196179886</v>
       </c>
       <c r="G41">
-        <v>1.007781695135392</v>
+        <v>1.007788700936423</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2184,10 +2202,10 @@
         <v>0.9503171966677352</v>
       </c>
       <c r="C42">
+        <v>1.024189476523347</v>
+      </c>
+      <c r="D42">
         <v>1.024372586872587</v>
-      </c>
-      <c r="D42">
-        <v>1.024189476523347</v>
       </c>
       <c r="E42">
         <v>1.077713614563962</v>
@@ -2196,7 +2214,7 @@
         <v>0.9719821654648538</v>
       </c>
       <c r="G42">
-        <v>1.003265387834662</v>
+        <v>1.003264472282916</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2213,10 +2231,10 @@
         <v>0.8954351259298817</v>
       </c>
       <c r="C43">
+        <v>0.9697246010415811</v>
+      </c>
+      <c r="D43">
         <v>1.004826254826255</v>
-      </c>
-      <c r="D43">
-        <v>0.9697246010415811</v>
       </c>
       <c r="E43">
         <v>1.047861407458158</v>
@@ -2225,7 +2243,7 @@
         <v>0.9341663455716409</v>
       </c>
       <c r="G43">
-        <v>0.9642210201696417</v>
+        <v>0.9640455119007183</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2242,10 +2260,10 @@
         <v>0.8674222483500562</v>
       </c>
       <c r="C44">
+        <v>0.9405647215503586</v>
+      </c>
+      <c r="D44">
         <v>0.9974662162162162</v>
-      </c>
-      <c r="D44">
-        <v>0.9405647215503586</v>
       </c>
       <c r="E44">
         <v>1.030733091905647</v>
@@ -2254,7 +2272,7 @@
         <v>0.9073044531293004</v>
       </c>
       <c r="G44">
-        <v>0.9417056477291765</v>
+        <v>0.9414211402558472</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2271,10 +2289,10 @@
         <v>0.8893784284877434</v>
       </c>
       <c r="C45">
+        <v>0.9575414961981824</v>
+      </c>
+      <c r="D45">
         <v>0.9885376447876448</v>
-      </c>
-      <c r="D45">
-        <v>0.9575414961981824</v>
       </c>
       <c r="E45">
         <v>1.029852207105804</v>
@@ -2283,7 +2301,7 @@
         <v>0.9117080420542742</v>
       </c>
       <c r="G45">
-        <v>0.9480293473798844</v>
+        <v>0.9478743666369371</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2300,10 +2318,10 @@
         <v>0.9114744689435453</v>
       </c>
       <c r="C46">
+        <v>0.9878844301670798</v>
+      </c>
+      <c r="D46">
         <v>0.9978281853281853</v>
-      </c>
-      <c r="D46">
-        <v>0.9878844301670798</v>
       </c>
       <c r="E46">
         <v>1.093080160516786</v>
@@ -2312,7 +2330,7 @@
         <v>0.9213408928276545</v>
       </c>
       <c r="G46">
-        <v>0.971983103322158</v>
+        <v>0.9719333845463525</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2329,10 +2347,10 @@
         <v>0.9166699420868117</v>
       </c>
       <c r="C47">
+        <v>1.003011366253994</v>
+      </c>
+      <c r="D47">
         <v>0.9980694980694982</v>
-      </c>
-      <c r="D47">
-        <v>1.003011366253994</v>
       </c>
       <c r="E47">
         <v>1.080160516785749</v>
@@ -2341,7 +2359,7 @@
         <v>0.9142951505476964</v>
       </c>
       <c r="G47">
-        <v>0.9709464652088702</v>
+        <v>0.9709711745497926</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2358,10 +2376,10 @@
         <v>0.8757856668385999</v>
       </c>
       <c r="C48">
+        <v>0.957573314623156</v>
+      </c>
+      <c r="D48">
         <v>0.9827461389961391</v>
-      </c>
-      <c r="D48">
-        <v>0.957573314623156</v>
       </c>
       <c r="E48">
         <v>1.082411666829794</v>
@@ -2370,7 +2388,7 @@
         <v>0.879506798040403</v>
       </c>
       <c r="G48">
-        <v>0.9427851722849754</v>
+        <v>0.9426593081631104</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2387,10 +2405,10 @@
         <v>0.8876667473911847</v>
       </c>
       <c r="C49">
+        <v>0.9641298964915476</v>
+      </c>
+      <c r="D49">
         <v>0.9908301158301159</v>
-      </c>
-      <c r="D49">
-        <v>0.9641298964915476</v>
       </c>
       <c r="E49">
         <v>1.059704414211608</v>
@@ -2399,7 +2417,7 @@
         <v>0.8780756316397864</v>
       </c>
       <c r="G49">
-        <v>0.9430420864547713</v>
+        <v>0.9429085853580785</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2416,10 +2434,10 @@
         <v>0.8905306243628587</v>
       </c>
       <c r="C50">
+        <v>0.9797492298432793</v>
+      </c>
+      <c r="D50">
         <v>0.9973455598455598</v>
-      </c>
-      <c r="D50">
-        <v>0.9797492298432793</v>
       </c>
       <c r="E50">
         <v>1.065576979543897</v>
@@ -2428,7 +2446,7 @@
         <v>0.8911763086915836</v>
       </c>
       <c r="G50">
-        <v>0.952505957732538</v>
+        <v>0.9524179760825267</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2445,10 +2463,10 @@
         <v>0.9136224902071773</v>
       </c>
       <c r="C51">
+        <v>0.9930284130093138</v>
+      </c>
+      <c r="D51">
         <v>1.005429536679537</v>
-      </c>
-      <c r="D51">
-        <v>0.9930284130093138</v>
       </c>
       <c r="E51">
         <v>1.065674855632769</v>
@@ -2457,7 +2475,7 @@
         <v>0.8953046733087466</v>
       </c>
       <c r="G51">
-        <v>0.9613754260885714</v>
+        <v>0.9613134204702203</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2474,10 +2492,10 @@
         <v>0.8910089651093848</v>
       </c>
       <c r="C52">
+        <v>0.9594343262556518</v>
+      </c>
+      <c r="D52">
         <v>0.9863658301158301</v>
-      </c>
-      <c r="D52">
-        <v>0.9594343262556518</v>
       </c>
       <c r="E52">
         <v>1.042869726925712</v>
@@ -2486,7 +2504,7 @@
         <v>0.8732316838223152</v>
       </c>
       <c r="G52">
-        <v>0.9377003396245757</v>
+        <v>0.9375656821052747</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2503,10 +2521,10 @@
         <v>0.8978545321723633</v>
       </c>
       <c r="C53">
+        <v>0.9743116683378479</v>
+      </c>
+      <c r="D53">
         <v>0.9956563706563707</v>
-      </c>
-      <c r="D53">
-        <v>0.9743116683378479</v>
       </c>
       <c r="E53">
         <v>1.046491142213957</v>
@@ -2515,7 +2533,7 @@
         <v>0.8820939065338251</v>
       </c>
       <c r="G53">
-        <v>0.9464203063780949</v>
+        <v>0.9463135828665024</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2532,10 +2550,10 @@
         <v>0.900951045768282</v>
       </c>
       <c r="C54">
+        <v>0.9522220340594204</v>
+      </c>
+      <c r="D54">
         <v>0.9884169884169884</v>
-      </c>
-      <c r="D54">
-        <v>0.9522220340594204</v>
       </c>
       <c r="E54">
         <v>1.005970441421161</v>
@@ -2544,7 +2562,7 @@
         <v>0.8782407662244729</v>
       </c>
       <c r="G54">
-        <v>0.934113777119868</v>
+        <v>0.9339328023480802</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2561,10 +2579,10 @@
         <v>0.9015302201347496</v>
       </c>
       <c r="C55">
+        <v>0.9211961771261079</v>
+      </c>
+      <c r="D55">
         <v>0.9791264478764479</v>
-      </c>
-      <c r="D55">
-        <v>0.9211961771261079</v>
       </c>
       <c r="E55">
         <v>0.9642752275619065</v>
@@ -2573,7 +2591,7 @@
         <v>0.8656354929267353</v>
       </c>
       <c r="G55">
-        <v>0.9164741280012487</v>
+        <v>0.9161844766474969</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2590,10 +2608,10 @@
         <v>0.913890681559825</v>
       </c>
       <c r="C56">
+        <v>0.9254323106583666</v>
+      </c>
+      <c r="D56">
         <v>0.981418918918919</v>
-      </c>
-      <c r="D56">
-        <v>0.9254323106583666</v>
       </c>
       <c r="E56">
         <v>0.9700499168053244</v>
@@ -2602,7 +2620,7 @@
         <v>0.8743876259151209</v>
       </c>
       <c r="G56">
-        <v>0.9235051161648855</v>
+        <v>0.9232251831235827</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2619,10 +2637,10 @@
         <v>0.9428902724387289</v>
       </c>
       <c r="C57">
+        <v>0.966795915517327</v>
+      </c>
+      <c r="D57">
         <v>0.9973455598455598</v>
-      </c>
-      <c r="D57">
-        <v>0.966795915517327</v>
       </c>
       <c r="E57">
         <v>1.003132034843887</v>
@@ -2631,7 +2649,7 @@
         <v>0.902075191280894</v>
       </c>
       <c r="G57">
-        <v>0.9525630164206245</v>
+        <v>0.9524102681989833</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2648,10 +2666,10 @@
         <v>0.9463779612953893</v>
       </c>
       <c r="C58">
+        <v>0.9613277397957485</v>
+      </c>
+      <c r="D58">
         <v>0.9971042471042472</v>
-      </c>
-      <c r="D58">
-        <v>0.9613277397957485</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2660,7 +2678,7 @@
         <v>0.9000385314030935</v>
       </c>
       <c r="G58">
-        <v>0.9510237678572576</v>
+        <v>0.9508448853207151</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2677,10 +2695,10 @@
         <v>0.9675903341709375</v>
       </c>
       <c r="C59">
+        <v>0.9855462042326004</v>
+      </c>
+      <c r="D59">
         <v>0.9954150579150579</v>
-      </c>
-      <c r="D59">
-        <v>0.9855462042326004</v>
       </c>
       <c r="E59">
         <v>1.01380052853088</v>
@@ -2689,7 +2707,7 @@
         <v>0.9128639841470799</v>
       </c>
       <c r="G59">
-        <v>0.96484824232913</v>
+        <v>0.9647988980607176</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2706,10 +2724,10 @@
         <v>0.9567762470623217</v>
       </c>
       <c r="C60">
+        <v>0.9740848425701178</v>
+      </c>
+      <c r="D60">
         <v>0.9913127413127414</v>
-      </c>
-      <c r="D60">
-        <v>0.9740848425701178</v>
       </c>
       <c r="E60">
         <v>0.9898208867573652</v>
@@ -2718,7 +2736,7 @@
         <v>0.9093411130071007</v>
       </c>
       <c r="G60">
-        <v>0.9553021406551387</v>
+        <v>0.9552160011614257</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2735,10 +2753,10 @@
         <v>0.9742437416243307</v>
       </c>
       <c r="C61">
+        <v>0.987651620598789</v>
+      </c>
+      <c r="D61">
         <v>1.00132722007722</v>
-      </c>
-      <c r="D61">
-        <v>0.987651620598789</v>
       </c>
       <c r="E61">
         <v>0.9985318586669276</v>
@@ -2747,7 +2765,7 @@
         <v>0.9260197060604393</v>
       </c>
       <c r="G61">
-        <v>0.969153840568052</v>
+        <v>0.9690854625706598</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2764,10 +2782,10 @@
         <v>0.9782067680469143</v>
       </c>
       <c r="C62">
+        <v>0.9912429189262187</v>
+      </c>
+      <c r="D62">
         <v>1.011703667953668</v>
-      </c>
-      <c r="D62">
-        <v>0.9912429189262187</v>
       </c>
       <c r="E62">
         <v>1.007047078398747</v>
@@ -2776,7 +2794,7 @@
         <v>0.9351021082181978</v>
       </c>
       <c r="G62">
-        <v>0.9765863193907237</v>
+        <v>0.9764840156455864</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2793,10 +2811,10 @@
         <v>0.9650400771521492</v>
       </c>
       <c r="C63">
+        <v>0.9972846580704282</v>
+      </c>
+      <c r="D63">
         <v>1.008566602316602</v>
-      </c>
-      <c r="D63">
-        <v>0.9972846580704282</v>
       </c>
       <c r="E63">
         <v>1.012528139375551</v>
@@ -2805,7 +2823,7 @@
         <v>0.93009302581604</v>
       </c>
       <c r="G63">
-        <v>0.9740629456075676</v>
+        <v>0.9740065358863366</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2822,10 +2840,10 @@
         <v>0.9663052512165702</v>
       </c>
       <c r="C64">
+        <v>0.9818758502164342</v>
+      </c>
+      <c r="D64">
         <v>1.008204633204633</v>
-      </c>
-      <c r="D64">
-        <v>0.9818758502164342</v>
       </c>
       <c r="E64">
         <v>1.024664774395615</v>
@@ -2834,7 +2852,7 @@
         <v>0.9278912313535531</v>
       </c>
       <c r="G64">
-        <v>0.9729499897592653</v>
+        <v>0.9728183458443243</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2851,10 +2869,10 @@
         <v>0.9880981169281189</v>
       </c>
       <c r="C65">
+        <v>0.9747396466377068</v>
+      </c>
+      <c r="D65">
         <v>1.003137065637066</v>
-      </c>
-      <c r="D65">
-        <v>0.9747396466377068</v>
       </c>
       <c r="E65">
         <v>1.037584418126652</v>
@@ -2863,7 +2881,7 @@
         <v>0.9339461661253923</v>
       </c>
       <c r="G65">
-        <v>0.97874568654358</v>
+        <v>0.9786036994485834</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2880,10 +2898,10 @@
         <v>0.9688127312238475</v>
       </c>
       <c r="C66">
+        <v>0.9524671215919324</v>
+      </c>
+      <c r="D66">
         <v>1.005550193050193</v>
-      </c>
-      <c r="D66">
-        <v>0.9524671215919324</v>
       </c>
       <c r="E66">
         <v>1.035039639815993</v>
@@ -2892,7 +2910,7 @@
         <v>0.9230472835360819</v>
       </c>
       <c r="G66">
-        <v>0.9681859163258016</v>
+        <v>0.9679205009685102</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2909,10 +2927,10 @@
         <v>0.9436396026232445</v>
       </c>
       <c r="C67">
+        <v>0.9278043537561812</v>
+      </c>
+      <c r="D67">
         <v>0.9847972972972974</v>
-      </c>
-      <c r="D67">
-        <v>0.9278043537561812</v>
       </c>
       <c r="E67">
         <v>0.9920720368014094</v>
@@ -2921,7 +2939,7 @@
         <v>0.9037815819893212</v>
       </c>
       <c r="G67">
-        <v>0.9428617994849706</v>
+        <v>0.9425768347672649</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2938,10 +2956,10 @@
         <v>0.9583567843893441</v>
       </c>
       <c r="C68">
+        <v>0.9331816427476655</v>
+      </c>
+      <c r="D68">
         <v>0.9634411196911197</v>
-      </c>
-      <c r="D68">
-        <v>0.9331816427476655</v>
       </c>
       <c r="E68">
         <v>0.9850249584026621</v>
@@ -2950,7 +2968,7 @@
         <v>0.9082952606374195</v>
       </c>
       <c r="G68">
-        <v>0.9429471688938313</v>
+        <v>0.942795871509114</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2967,10 +2985,10 @@
         <v>0.9612804466295033</v>
       </c>
       <c r="C69">
+        <v>0.9573434845406216</v>
+      </c>
+      <c r="D69">
         <v>0.9873310810810811</v>
-      </c>
-      <c r="D69">
-        <v>0.9573434845406216</v>
       </c>
       <c r="E69">
         <v>1.008515219731819</v>
@@ -2979,7 +2997,7 @@
         <v>0.9174877525183025</v>
       </c>
       <c r="G69">
-        <v>0.958401604246792</v>
+        <v>0.9582516662640898</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2996,10 +3014,10 @@
         <v>0.9594471586930292</v>
       </c>
       <c r="C70">
+        <v>0.9588850704709834</v>
+      </c>
+      <c r="D70">
         <v>0.974903474903475</v>
-      </c>
-      <c r="D70">
-        <v>0.9588850704709834</v>
       </c>
       <c r="E70">
         <v>1.024273270040129</v>
@@ -3008,7 +3026,7 @@
         <v>0.9100016513458469</v>
       </c>
       <c r="G70">
-        <v>0.9563612788398689</v>
+        <v>0.9562811868177064</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3025,10 +3043,10 @@
         <v>0.9537038907581775</v>
       </c>
       <c r="C71">
+        <v>0.9539997194069288</v>
+      </c>
+      <c r="D71">
         <v>0.9832287644787645</v>
-      </c>
-      <c r="D71">
-        <v>0.9539997194069288</v>
       </c>
       <c r="E71">
         <v>1.01840070470784</v>
@@ -3037,7 +3055,7 @@
         <v>0.9101667859305334</v>
       </c>
       <c r="G71">
-        <v>0.955079660726293</v>
+        <v>0.9549335155009337</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3054,10 +3072,10 @@
         <v>0.9829057495130855</v>
       </c>
       <c r="C72">
+        <v>0.9988562623197857</v>
+      </c>
+      <c r="D72">
         <v>0.9961389961389961</v>
-      </c>
-      <c r="D72">
-        <v>0.9988562623197857</v>
       </c>
       <c r="E72">
         <v>1.056670255456592</v>
@@ -3066,7 +3084,7 @@
         <v>0.9470468431771893</v>
       </c>
       <c r="G72">
-        <v>0.9881249404424288</v>
+        <v>0.9881385267733327</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3083,10 +3101,10 @@
         <v>0.9894957678812706</v>
       </c>
       <c r="C73">
+        <v>0.9977594639547586</v>
+      </c>
+      <c r="D73">
         <v>0.9998793436293436</v>
-      </c>
-      <c r="D73">
-        <v>0.9977594639547586</v>
       </c>
       <c r="E73">
         <v>1.046784770480572</v>
@@ -3095,7 +3113,7 @@
         <v>0.942147850498156</v>
       </c>
       <c r="G73">
-        <v>0.9864523583030254</v>
+        <v>0.9864417589046525</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3112,10 +3130,10 @@
         <v>1.009417652077367</v>
       </c>
       <c r="C74">
+        <v>0.9944365800504087</v>
+      </c>
+      <c r="D74">
         <v>1.004826254826255</v>
-      </c>
-      <c r="D74">
-        <v>0.9944365800504087</v>
       </c>
       <c r="E74">
         <v>1.039346187726339</v>
@@ -3124,7 +3142,7 @@
         <v>0.9496889965321738</v>
       </c>
       <c r="G74">
-        <v>0.9913929897123963</v>
+        <v>0.9913410413385171</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3141,10 +3159,10 @@
         <v>1.006916193080956</v>
       </c>
       <c r="C75">
+        <v>0.9946952863157321</v>
+      </c>
+      <c r="D75">
         <v>1.007239382239382</v>
-      </c>
-      <c r="D75">
-        <v>0.9946952863157321</v>
       </c>
       <c r="E75">
         <v>1.043652735636684</v>
@@ -3153,7 +3171,7 @@
         <v>0.9561842901965102</v>
       </c>
       <c r="G75">
-        <v>0.9942746871914546</v>
+        <v>0.9942119667118364</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3170,10 +3188,10 @@
         <v>1.032292160894361</v>
       </c>
       <c r="C76">
+        <v>1.011937222781352</v>
+      </c>
+      <c r="D76">
         <v>1.003378378378379</v>
-      </c>
-      <c r="D76">
-        <v>1.011937222781352</v>
       </c>
       <c r="E76">
         <v>1.055006361945777</v>
@@ -3182,7 +3200,7 @@
         <v>0.9633401221995926</v>
       </c>
       <c r="G76">
-        <v>1.005011923482207</v>
+        <v>1.005054717704222</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3199,10 +3217,10 @@
         <v>1.036403617687023</v>
       </c>
       <c r="C77">
+        <v>0.9875027952852568</v>
+      </c>
+      <c r="D77">
         <v>1.007239382239382</v>
-      </c>
-      <c r="D77">
-        <v>0.9875027952852568</v>
       </c>
       <c r="E77">
         <v>1.06313007732211</v>
@@ -3211,7 +3229,7 @@
         <v>0.9595970716133649</v>
       </c>
       <c r="G77">
-        <v>1.002440767600115</v>
+        <v>1.002342084665344</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3228,10 +3246,10 @@
         <v>1.062571238556948</v>
       </c>
       <c r="C78">
+        <v>0.9833019065865914</v>
+      </c>
+      <c r="D78">
         <v>1.008204633204633</v>
-      </c>
-      <c r="D78">
-        <v>0.9833019065865914</v>
       </c>
       <c r="E78">
         <v>1.065479103455026</v>
@@ -3240,7 +3258,7 @@
         <v>0.9641107502614631</v>
       </c>
       <c r="G78">
-        <v>1.008237312442618</v>
+        <v>1.008112798809528</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3257,10 +3275,10 @@
         <v>1.087231292063665</v>
       </c>
       <c r="C79">
+        <v>1.008222176478839</v>
+      </c>
+      <c r="D79">
         <v>1.016167953667954</v>
-      </c>
-      <c r="D79">
-        <v>1.008222176478839</v>
       </c>
       <c r="E79">
         <v>1.065870607810512</v>
@@ -3269,7 +3287,7 @@
         <v>0.9692849672483074</v>
       </c>
       <c r="G79">
-        <v>1.01966722037406</v>
+        <v>1.019627491488114</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3286,10 +3304,10 @@
         <v>1.081834473973067</v>
       </c>
       <c r="C80">
+        <v>1.010195961647215</v>
+      </c>
+      <c r="D80">
         <v>1.009773166023166</v>
-      </c>
-      <c r="D80">
-        <v>1.010195961647215</v>
       </c>
       <c r="E80">
         <v>1.076049721053147</v>
@@ -3298,7 +3316,7 @@
         <v>0.9702757747564265</v>
       </c>
       <c r="G80">
-        <v>1.01999484211454</v>
+        <v>1.01999695609266</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3315,10 +3333,10 @@
         <v>1.104373842484467</v>
       </c>
       <c r="C81">
+        <v>1.023828313191575</v>
+      </c>
+      <c r="D81">
         <v>1.005550193050193</v>
-      </c>
-      <c r="D81">
-        <v>1.023828313191575</v>
       </c>
       <c r="E81">
         <v>1.073798571009102</v>
@@ -3327,7 +3345,7 @@
         <v>0.9739637804810921</v>
       </c>
       <c r="G81">
-        <v>1.026203569492764</v>
+        <v>1.026294960093471</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3344,10 +3362,10 @@
         <v>1.055915721552302</v>
       </c>
       <c r="C82">
+        <v>1.015476504253284</v>
+      </c>
+      <c r="D82">
         <v>0.9810569498069499</v>
-      </c>
-      <c r="D82">
-        <v>1.015476504253284</v>
       </c>
       <c r="E82">
         <v>1.10061661935989</v>
@@ -3356,7 +3374,7 @@
         <v>0.9494688170859251</v>
       </c>
       <c r="G82">
-        <v>1.008765429165602</v>
+        <v>1.008937526937834</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3373,10 +3391,10 @@
         <v>1.02068747550485</v>
       </c>
       <c r="C83">
+        <v>0.9879733678169083</v>
+      </c>
+      <c r="D83">
         <v>0.9666988416988418</v>
-      </c>
-      <c r="D83">
-        <v>0.9879733678169083</v>
       </c>
       <c r="E83">
         <v>1.129587941665851</v>
@@ -3385,7 +3403,7 @@
         <v>0.9160015412561237</v>
       </c>
       <c r="G83">
-        <v>0.9895337986038037</v>
+        <v>0.9896401712343941</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3402,10 +3420,10 @@
         <v>1.045176259819247</v>
       </c>
       <c r="C84">
+        <v>0.9855024306210293</v>
+      </c>
+      <c r="D84">
         <v>0.9660955598455598</v>
-      </c>
-      <c r="D84">
-        <v>0.9855024306210293</v>
       </c>
       <c r="E84">
         <v>1.185181560144857</v>
@@ -3414,7 +3432,7 @@
         <v>0.9165519898717455</v>
       </c>
       <c r="G84">
-        <v>1.002541224477064</v>
+        <v>1.002638258830942</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3431,10 +3449,10 @@
         <v>1.061027017740725</v>
       </c>
       <c r="C85">
+        <v>0.9754708124423276</v>
+      </c>
+      <c r="D85">
         <v>0.964165057915058</v>
-      </c>
-      <c r="D85">
-        <v>0.9754708124423276</v>
       </c>
       <c r="E85">
         <v>1.136341391797984</v>
@@ -3443,7 +3461,7 @@
         <v>0.9294875323388563</v>
       </c>
       <c r="G85">
-        <v>0.9994625522329571</v>
+        <v>0.9995190810055935</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3460,10 +3478,10 @@
         <v>1.087965503797537</v>
       </c>
       <c r="C86">
+        <v>0.9719066646788531</v>
+      </c>
+      <c r="D86">
         <v>0.9740588803088803</v>
-      </c>
-      <c r="D86">
-        <v>0.9719066646788531</v>
       </c>
       <c r="E86">
         <v>1.141920328863659</v>
@@ -3472,7 +3490,7 @@
         <v>0.9342764352947652</v>
       </c>
       <c r="G86">
-        <v>1.007636822879878</v>
+        <v>1.007626061801728</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3489,10 +3507,10 @@
         <v>1.095360858006061</v>
       </c>
       <c r="C87">
+        <v>0.9534158271003422</v>
+      </c>
+      <c r="D87">
         <v>0.9670608108108109</v>
-      </c>
-      <c r="D87">
-        <v>0.9534158271003422</v>
       </c>
       <c r="E87">
         <v>1.084662816873838</v>
@@ -3501,7 +3519,7 @@
         <v>0.9261297957835637</v>
       </c>
       <c r="G87">
-        <v>0.992517492563184</v>
+        <v>0.9924492676446316</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3518,10 +3536,10 @@
         <v>1.117933144306798</v>
       </c>
       <c r="C88">
+        <v>0.9784768404510082</v>
+      </c>
+      <c r="D88">
         <v>0.9781611969111969</v>
-      </c>
-      <c r="D88">
-        <v>0.9784768404510082</v>
       </c>
       <c r="E88">
         <v>1.089850249584027</v>
@@ -3530,7 +3548,7 @@
         <v>0.9461661253921947</v>
       </c>
       <c r="G88">
-        <v>1.009844829242264</v>
+        <v>1.009846407459963</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3547,10 +3565,10 @@
         <v>1.143025172381468</v>
       </c>
       <c r="C89">
+        <v>1.00820822255388</v>
+      </c>
+      <c r="D89">
         <v>0.9915540540540541</v>
-      </c>
-      <c r="D89">
-        <v>1.00820822255388</v>
       </c>
       <c r="E89">
         <v>1.121757854556132</v>
@@ -3559,7 +3577,7 @@
         <v>0.9626245389992844</v>
       </c>
       <c r="G89">
-        <v>1.031988969086955</v>
+        <v>1.032072239929454</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3576,10 +3594,10 @@
         <v>1.123221379106533</v>
       </c>
       <c r="C90">
+        <v>1.000863988796736</v>
+      </c>
+      <c r="D90">
         <v>0.9960183397683398</v>
-      </c>
-      <c r="D90">
-        <v>1.000863988796736</v>
       </c>
       <c r="E90">
         <v>1.136047763531369</v>
@@ -3588,7 +3606,7 @@
         <v>0.9574503220124402</v>
       </c>
       <c r="G90">
-        <v>1.028819797606971</v>
+        <v>1.028844025852113</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3605,10 +3623,10 @@
         <v>1.119504510945736</v>
       </c>
       <c r="C91">
+        <v>1.012187536828461</v>
+      </c>
+      <c r="D91">
         <v>0.9928812741312741</v>
-      </c>
-      <c r="D91">
-        <v>1.012187536828461</v>
       </c>
       <c r="E91">
         <v>1.142311833219144</v>
@@ -3617,7 +3635,7 @@
         <v>0.9614685969064788</v>
       </c>
       <c r="G91">
-        <v>1.031882616500085</v>
+        <v>1.031979147813571</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3634,10 +3652,10 @@
         <v>1.122223341619133</v>
       </c>
       <c r="C92">
+        <v>1.012817151826885</v>
+      </c>
+      <c r="D92">
         <v>0.9995173745173745</v>
-      </c>
-      <c r="D92">
-        <v>1.012817151826885</v>
       </c>
       <c r="E92">
         <v>1.107957326025252</v>
@@ -3646,7 +3664,7 @@
         <v>0.9660373204161391</v>
       </c>
       <c r="G92">
-        <v>1.029416026326135</v>
+        <v>1.029482525212682</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3663,10 +3681,10 @@
         <v>1.101237774802562</v>
       </c>
       <c r="C93">
+        <v>1.004362736847858</v>
+      </c>
+      <c r="D93">
         <v>0.9923986486486487</v>
-      </c>
-      <c r="D93">
-        <v>1.004362736847858</v>
       </c>
       <c r="E93">
         <v>1.114221395713027</v>
@@ -3675,7 +3693,7 @@
         <v>0.9549182583805801</v>
       </c>
       <c r="G93">
-        <v>1.020607599124843</v>
+        <v>1.020667419565839</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3692,10 +3710,10 @@
         <v>1.093003068239749</v>
       </c>
       <c r="C94">
+        <v>1.010270560521841</v>
+      </c>
+      <c r="D94">
         <v>1.00132722007722</v>
-      </c>
-      <c r="D94">
-        <v>1.010270560521841</v>
       </c>
       <c r="E94">
         <v>1.106195556425565</v>
@@ -3704,7 +3722,7 @@
         <v>0.96251444927616</v>
       </c>
       <c r="G94">
-        <v>1.02288282657134</v>
+        <v>1.022927543273563</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3721,10 +3739,10 @@
         <v>1.124618854263747</v>
       </c>
       <c r="C95">
+        <v>1.027854939217063</v>
+      </c>
+      <c r="D95">
         <v>1.022321428571429</v>
-      </c>
-      <c r="D95">
-        <v>1.027854939217063</v>
       </c>
       <c r="E95">
         <v>1.115493784868357</v>
@@ -3733,7 +3751,7 @@
         <v>0.9911928221500523</v>
       </c>
       <c r="G95">
-        <v>1.045726018865591</v>
+        <v>1.045753686418819</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3750,10 +3768,10 @@
         <v>1.120316483082725</v>
       </c>
       <c r="C96">
+        <v>1.019992001818778</v>
+      </c>
+      <c r="D96">
         <v>1.01761583011583</v>
-      </c>
-      <c r="D96">
-        <v>1.019992001818778</v>
       </c>
       <c r="E96">
         <v>1.125477145933248</v>
@@ -3762,7 +3780,7 @@
         <v>0.985027797655089</v>
       </c>
       <c r="G96">
-        <v>1.042510075849018</v>
+        <v>1.042521956707533</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3779,10 +3797,10 @@
         <v>1.121273530817313</v>
       </c>
       <c r="C97">
+        <v>1.027098174663985</v>
+      </c>
+      <c r="D97">
         <v>1.026303088803089</v>
-      </c>
-      <c r="D97">
-        <v>1.027098174663985</v>
       </c>
       <c r="E97">
         <v>1.125672898110991</v>
@@ -3791,7 +3809,7 @@
         <v>0.9947707381515936</v>
       </c>
       <c r="G97">
-        <v>1.048569595933365</v>
+        <v>1.04857357136267</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3808,10 +3826,10 @@
         <v>1.096874065488938</v>
       </c>
       <c r="C98">
+        <v>1.045181443420068</v>
+      </c>
+      <c r="D98">
         <v>1.016529922779923</v>
-      </c>
-      <c r="D98">
-        <v>1.045181443420068</v>
       </c>
       <c r="E98">
         <v>1.142996965841245</v>
@@ -3820,7 +3838,7 @@
         <v>0.9871195023944515</v>
       </c>
       <c r="G98">
-        <v>1.046077551323992</v>
+        <v>1.046220808927193</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3837,10 +3855,10 @@
         <v>1.117570447987966</v>
       </c>
       <c r="C99">
+        <v>1.077606578595302</v>
+      </c>
+      <c r="D99">
         <v>1.013030888030888</v>
-      </c>
-      <c r="D99">
-        <v>1.077606578595302</v>
       </c>
       <c r="E99">
         <v>1.174415190368993</v>
@@ -3849,7 +3867,7 @@
         <v>0.9958165905212748</v>
       </c>
       <c r="G99">
-        <v>1.062405293874335</v>
+        <v>1.062728172327157</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3866,10 +3884,10 @@
         <v>1.136906638718238</v>
       </c>
       <c r="C100">
+        <v>1.070294895720047</v>
+      </c>
+      <c r="D100">
         <v>1.016409266409267</v>
-      </c>
-      <c r="D100">
-        <v>1.070294895720047</v>
       </c>
       <c r="E100">
         <v>1.176079083879808</v>
@@ -3878,7 +3896,7 @@
         <v>1.000165134584686</v>
       </c>
       <c r="G100">
-        <v>1.066769904918599</v>
+        <v>1.067039333065152</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3895,10 +3913,10 @@
         <v>1.118010611716685</v>
       </c>
       <c r="C101">
+        <v>1.061065243376252</v>
+      </c>
+      <c r="D101">
         <v>1.003619691119691</v>
-      </c>
-      <c r="D101">
-        <v>1.061065243376252</v>
       </c>
       <c r="E101">
         <v>1.15914652050504</v>
@@ -3907,7 +3925,7 @@
         <v>0.9820003302691694</v>
       </c>
       <c r="G101">
-        <v>1.051072201511423</v>
+        <v>1.051359429272706</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3924,10 +3942,10 @@
         <v>1.094844618585296</v>
       </c>
       <c r="C102">
+        <v>1.038995236460245</v>
+      </c>
+      <c r="D102">
         <v>1.005188223938224</v>
-      </c>
-      <c r="D102">
-        <v>1.038995236460245</v>
       </c>
       <c r="E102">
         <v>1.159440148771655</v>
@@ -3936,7 +3954,7 @@
         <v>0.9725876589420377</v>
       </c>
       <c r="G102">
-        <v>1.040701349243135</v>
+        <v>1.040870384305745</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3953,10 +3971,10 @@
         <v>1.106112581505772</v>
       </c>
       <c r="C103">
+        <v>1.049185810204051</v>
+      </c>
+      <c r="D103">
         <v>1.010014478764479</v>
-      </c>
-      <c r="D103">
-        <v>1.049185810204051</v>
       </c>
       <c r="E103">
         <v>1.15581873348341</v>
@@ -3965,7 +3983,7 @@
         <v>0.9779270105135686</v>
       </c>
       <c r="G103">
-        <v>1.046283263423851</v>
+        <v>1.046479120081049</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3982,10 +4000,10 @@
         <v>1.112879523835607</v>
       </c>
       <c r="C104">
+        <v>1.027612260102204</v>
+      </c>
+      <c r="D104">
         <v>1.017133204633205</v>
-      </c>
-      <c r="D104">
-        <v>1.027612260102204</v>
       </c>
       <c r="E104">
         <v>1.150533424684349</v>
@@ -3994,7 +4012,7 @@
         <v>0.9835966312544724</v>
       </c>
       <c r="G104">
-        <v>1.046083090143455</v>
+        <v>1.0461354854208</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -4011,10 +4029,10 @@
         <v>1.100170678810963</v>
       </c>
       <c r="C105">
+        <v>1.02929647649863</v>
+      </c>
+      <c r="D105">
         <v>1.021838803088803</v>
-      </c>
-      <c r="D105">
-        <v>1.02929647649863</v>
       </c>
       <c r="E105">
         <v>1.124009004600176</v>
@@ -4023,7 +4041,7 @@
         <v>0.9782022348213794</v>
       </c>
       <c r="G105">
-        <v>1.038843753795318</v>
+        <v>1.038881042162368</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4040,10 +4058,10 @@
         <v>1.09399397134201</v>
       </c>
       <c r="C106">
+        <v>1.03198327743756</v>
+      </c>
+      <c r="D106">
         <v>1.009893822393822</v>
-      </c>
-      <c r="D106">
-        <v>1.03198327743756</v>
       </c>
       <c r="E106">
         <v>1.12753254379955</v>
@@ -4052,7 +4070,7 @@
         <v>0.9823305994385424</v>
       </c>
       <c r="G106">
-        <v>1.038150133253934</v>
+        <v>1.038260580529152</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4069,10 +4087,10 @@
         <v>1.109314616613305</v>
       </c>
       <c r="C107">
+        <v>1.06555237375444</v>
+      </c>
+      <c r="D107">
         <v>1.010014478764479</v>
-      </c>
-      <c r="D107">
-        <v>1.06555237375444</v>
       </c>
       <c r="E107">
         <v>1.132719976509739</v>
@@ -4081,7 +4099,7 @@
         <v>0.9964220839984588</v>
       </c>
       <c r="G107">
-        <v>1.051820171727304</v>
+        <v>1.052097861202254</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4098,10 +4116,10 @@
         <v>1.102577486344575</v>
       </c>
       <c r="C108">
+        <v>1.081025017090765</v>
+      </c>
+      <c r="D108">
         <v>0.9956563706563707</v>
-      </c>
-      <c r="D108">
-        <v>1.081025017090765</v>
       </c>
       <c r="E108">
         <v>1.133600861309582</v>
@@ -4110,7 +4128,7 @@
         <v>0.9917983156272362</v>
       </c>
       <c r="G108">
-        <v>1.049406469783206</v>
+        <v>1.049833313015378</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4127,10 +4145,10 @@
         <v>1.080131333629149</v>
       </c>
       <c r="C109">
+        <v>1.066108730646828</v>
+      </c>
+      <c r="D109">
         <v>0.9873310810810811</v>
-      </c>
-      <c r="D109">
-        <v>1.066108730646828</v>
       </c>
       <c r="E109">
         <v>1.096701575805031</v>
@@ -4139,7 +4157,7 @@
         <v>0.9863488743325811</v>
       </c>
       <c r="G109">
-        <v>1.033827439595048</v>
+        <v>1.034221327842876</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4156,10 +4174,10 @@
         <v>1.044995072806107</v>
       </c>
       <c r="C110">
+        <v>1.021693263356634</v>
+      </c>
+      <c r="D110">
         <v>0.9738175675675677</v>
-      </c>
-      <c r="D110">
-        <v>1.021693263356634</v>
       </c>
       <c r="E110">
         <v>1.050308309679945</v>
@@ -4168,7 +4186,7 @@
         <v>0.9576154565971267</v>
       </c>
       <c r="G110">
-        <v>1.001091509091612</v>
+        <v>1.001330887570557</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4185,10 +4203,10 @@
         <v>1.049654397638662</v>
       </c>
       <c r="C111">
+        <v>1.039040226695167</v>
+      </c>
+      <c r="D111">
         <v>0.9653716216216217</v>
-      </c>
-      <c r="D111">
-        <v>1.039040226695167</v>
       </c>
       <c r="E111">
         <v>1.054810609768034</v>
@@ -4197,7 +4215,7 @@
         <v>0.9843672593163428</v>
       </c>
       <c r="G111">
-        <v>1.01288100686507</v>
+        <v>1.013249349890437</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4214,10 +4232,10 @@
         <v>1.05939872251729</v>
       </c>
       <c r="C112">
+        <v>1.06684170897195</v>
+      </c>
+      <c r="D112">
         <v>0.9657335907335908</v>
-      </c>
-      <c r="D112">
-        <v>1.06684170897195</v>
       </c>
       <c r="E112">
         <v>1.073504942742488</v>
@@ -4226,7 +4244,7 @@
         <v>0.9963670391368966</v>
       </c>
       <c r="G112">
-        <v>1.026230813700708</v>
+        <v>1.0267363542919</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4243,10 +4261,10 @@
         <v>1.068566158376641</v>
       </c>
       <c r="C113">
+        <v>1.081004197934042</v>
+      </c>
+      <c r="D113">
         <v>0.9734555984555985</v>
-      </c>
-      <c r="D113">
-        <v>1.081004197934042</v>
       </c>
       <c r="E113">
         <v>1.068121757854556</v>
@@ -4255,7 +4273,7 @@
         <v>0.9975229812297023</v>
       </c>
       <c r="G113">
-        <v>1.030932065172401</v>
+        <v>1.031469808169793</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4272,10 +4290,10 @@
         <v>1.08644059123514</v>
       </c>
       <c r="C114">
+        <v>1.085273316856529</v>
+      </c>
+      <c r="D114">
         <v>0.9679054054054055</v>
-      </c>
-      <c r="D114">
-        <v>1.085273316856529</v>
       </c>
       <c r="E114">
         <v>1.073896447097974</v>
@@ -4284,7 +4302,7 @@
         <v>1.004733858094347</v>
       </c>
       <c r="G114">
-        <v>1.03706400365252</v>
+        <v>1.037650843209776</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4301,10 +4319,10 @@
         <v>1.088359330647005</v>
       </c>
       <c r="C115">
+        <v>1.100747512008352</v>
+      </c>
+      <c r="D115">
         <v>0.9787644787644788</v>
-      </c>
-      <c r="D115">
-        <v>1.100747512008352</v>
       </c>
       <c r="E115">
         <v>1.092003523539199</v>
@@ -4313,7 +4331,7 @@
         <v>1.020972092255188</v>
       </c>
       <c r="G115">
-        <v>1.05013575890951</v>
+        <v>1.050745674075729</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4330,10 +4348,10 @@
         <v>1.070154767667137</v>
       </c>
       <c r="C116">
+        <v>1.113809018910833</v>
+      </c>
+      <c r="D116">
         <v>0.9638030888030887</v>
-      </c>
-      <c r="D116">
-        <v>1.113809018910833</v>
       </c>
       <c r="E116">
         <v>1.084956445140452</v>
@@ -4342,7 +4360,7 @@
         <v>1.01343094622117</v>
       </c>
       <c r="G116">
-        <v>1.043001349421387</v>
+        <v>1.043751379071925</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4359,10 +4377,10 @@
         <v>1.089034108704268</v>
       </c>
       <c r="C117">
+        <v>1.131908687253101</v>
+      </c>
+      <c r="D117">
         <v>0.9642857142857143</v>
-      </c>
-      <c r="D117">
-        <v>1.131908687253101</v>
       </c>
       <c r="E117">
         <v>1.113829891357541</v>
@@ -4371,7 +4389,7 @@
         <v>1.016898772499587</v>
       </c>
       <c r="G117">
-        <v>1.055187830303917</v>
+        <v>1.056025945168754</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4385,28 +4403,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.112480496356314</v>
+        <v>1.112480540305299</v>
       </c>
       <c r="C118">
-        <v>0.9642857142857143</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="D118">
-        <v>1.146698047603815</v>
+        <v>0.9727316602316602</v>
       </c>
       <c r="E118">
-        <v>1.113829891357541</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="F118">
-        <v>1.016898772499587</v>
+        <v>1.028513238289206</v>
       </c>
       <c r="G118">
-        <v>1.061613960662632</v>
+        <v>1.066218170567738</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.100696909300855</v>
+      </c>
+      <c r="C119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="D119">
+        <v>0.9682673745173745</v>
+      </c>
+      <c r="E119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="F119">
+        <v>1.018109759453955</v>
+      </c>
+      <c r="G119">
+        <v>1.059740523234205</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.09942673970187</v>
+      </c>
+      <c r="C120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="D120">
+        <v>0.9639237451737452</v>
+      </c>
+      <c r="E120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="F120">
+        <v>1.042439588264436</v>
+      </c>
+      <c r="G120">
+        <v>1.074003408292448</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.123290847801254</v>
+      </c>
+      <c r="C121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="D121">
+        <v>0.9638030888030887</v>
+      </c>
+      <c r="E121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="F121">
+        <v>1.034237903891672</v>
+      </c>
+      <c r="G121">
+        <v>1.068088965944667</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.069605932749586</v>
+      </c>
+      <c r="C122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="D122">
+        <v>0.9461872586872587</v>
+      </c>
+      <c r="E122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="F122">
+        <v>1.007541146034018</v>
+      </c>
+      <c r="G122">
+        <v>1.045669750168545</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.05748509583728</v>
+      </c>
+      <c r="C123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="D123">
+        <v>0.9251930501930502</v>
+      </c>
+      <c r="E123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="F123">
+        <v>1.013981394836792</v>
+      </c>
+      <c r="G123">
+        <v>1.051781433305139</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.020819439655429</v>
+      </c>
+      <c r="C124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="D124">
+        <v>0.9235038610038609</v>
+      </c>
+      <c r="E124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="F124">
+        <v>1.006165024494963</v>
+      </c>
+      <c r="G124">
+        <v>1.042914307262667</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.052525130651907</v>
+      </c>
+      <c r="C125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="D125">
+        <v>0.924831081081081</v>
+      </c>
+      <c r="E125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="F125">
+        <v>1.019265701546761</v>
+      </c>
+      <c r="G125">
+        <v>1.067922237102032</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.036187901421783</v>
+      </c>
+      <c r="C126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="D126">
+        <v>0.9074565637065637</v>
+      </c>
+      <c r="E126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="F126">
+        <v>1.026696757857654</v>
+      </c>
+      <c r="G126">
+        <v>1.068162585301879</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.037749189093626</v>
+      </c>
+      <c r="C127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="D127">
+        <v>0.9025096525096525</v>
+      </c>
+      <c r="E127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="F127">
+        <v>1.014641933175538</v>
+      </c>
+      <c r="G127">
+        <v>1.075424350600723</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4518,18 +4797,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4561,19 +4840,16 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -4594,27 +4870,24 @@
         <v>0.17</v>
       </c>
       <c r="J2">
-        <v>63.98</v>
+        <v>10.78719997406006</v>
       </c>
       <c r="K2">
-        <v>11.5</v>
+        <v>59.80680084228516</v>
       </c>
       <c r="L2">
-        <v>25.06</v>
-      </c>
-      <c r="M2">
-        <v>49.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>49.5421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -4632,30 +4905,27 @@
         <v>70</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="J3">
-        <v>49.44</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K3">
-        <v>3.39</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L3">
-        <v>-7.1</v>
-      </c>
-      <c r="M3">
-        <v>-7.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -4673,27 +4943,24 @@
         <v>71</v>
       </c>
       <c r="I4">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>36.67</v>
+        <v>3.147300004959106</v>
       </c>
       <c r="K4">
-        <v>4.21</v>
+        <v>44.04880142211914</v>
       </c>
       <c r="L4">
-        <v>14.81</v>
-      </c>
-      <c r="M4">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-7.7804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -4717,24 +4984,21 @@
         <v>0.165</v>
       </c>
       <c r="J5">
-        <v>39.53</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K5">
-        <v>3.11</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L5">
-        <v>16.99</v>
-      </c>
-      <c r="M5">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -4758,16 +5022,13 @@
         <v>0.33</v>
       </c>
       <c r="J6">
-        <v>46.01</v>
+        <v>6.168000221252441</v>
       </c>
       <c r="K6">
-        <v>6.21</v>
+        <v>45.57669830322266</v>
       </c>
       <c r="L6">
-        <v>20.56</v>
-      </c>
-      <c r="M6">
-        <v>16.22</v>
+        <v>16.2202</v>
       </c>
     </row>
   </sheetData>
@@ -4811,13 +5072,13 @@
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4831,13 +5092,13 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4851,13 +5112,13 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4871,13 +5132,13 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4891,13 +5152,13 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4911,13 +5172,13 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4931,13 +5192,13 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4951,13 +5212,13 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4971,13 +5232,13 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4991,13 +5252,13 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5011,13 +5272,13 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5031,13 +5292,13 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5051,13 +5312,13 @@
         <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5071,13 +5332,13 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5091,13 +5352,13 @@
         <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5111,13 +5372,13 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5128,16 +5389,16 @@
         <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5148,16 +5409,16 @@
         <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5168,16 +5429,16 @@
         <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5188,16 +5449,16 @@
         <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5468,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5215,32 +5476,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5248,43 +5509,43 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5292,54 +5553,76 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" t="s">
-        <v>199</v>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
